--- a/data/workshops.xlsx
+++ b/data/workshops.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00315273\Documents\GitHub\jy_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5087372-70FF-489E-86C6-A89675457AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882E3212-28C1-40FF-A543-A38678AAA798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{C57B6A98-42AC-4710-B062-4A6EBC213B03}"/>
+    <workbookView xWindow="41265" yWindow="1620" windowWidth="23730" windowHeight="12825" xr2:uid="{C57B6A98-42AC-4710-B062-4A6EBC213B03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
   <si>
     <t>with</t>
   </si>
@@ -196,13 +196,31 @@
   </si>
   <si>
     <t>Extensions to Regression</t>
+  </si>
+  <si>
+    <t>Spring 2022</t>
+  </si>
+  <si>
+    <t>Time-to-Event Analysis, aka Survival Analysis</t>
+  </si>
+  <si>
+    <t>Inferior Models: You must make a choice - censoring and duration of follow-up</t>
+  </si>
+  <si>
+    <t>Non-parametric approach: Kaplan Meyer Plots with Log Rank Test (bivariate)</t>
+  </si>
+  <si>
+    <t>Semi-parametric approach: Cox Proportional-Hazards Regression (multivariate)</t>
+  </si>
+  <si>
+    <t>Extension: Time varying covariates in a Cox model</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +247,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -266,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -275,6 +300,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C3633E-75C5-4B7C-AAEA-01BEFE2CC824}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -889,10 +915,46 @@
         <v>50</v>
       </c>
     </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" t="s">
+        <v>54</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G38" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G39" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G40" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G2:G15">
     <sortCondition ref="G2:G15"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/workshops.xlsx
+++ b/data/workshops.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00315273\Documents\GitHub\jy_CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00315273\GitHub\jy_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882E3212-28C1-40FF-A543-A38678AAA798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8965C7D3-744D-43A1-B50F-FB0EDDDE4BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41265" yWindow="1620" windowWidth="23730" windowHeight="12825" xr2:uid="{C57B6A98-42AC-4710-B062-4A6EBC213B03}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C57B6A98-42AC-4710-B062-4A6EBC213B03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t>order</t>
   </si>
   <si>
-    <t>Stand-along Sessions</t>
-  </si>
-  <si>
     <t>Two-three hour workshop</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>Time-to-Event Modeling: Survival Analysis with SPSS and R (spring 2018, spring 2019)</t>
   </si>
   <si>
-    <t>Intro to Multileel and Marginal Modles: MLM, HLM, GEE  (spring 2018, spring 2019)</t>
-  </si>
-  <si>
     <t>Random Forests: Classificantion and Regression Trees (spring and fall 2017, spring 2019)</t>
   </si>
   <si>
@@ -214,6 +208,12 @@
   </si>
   <si>
     <t>Extension: Time varying covariates in a Cox model</t>
+  </si>
+  <si>
+    <t>Intro to Multilevel and Marginal Modles: MLM, HLM, GEE  (spring 2018, spring 2019)</t>
+  </si>
+  <si>
+    <t>Quantitative Methods: Stand-along Sessions</t>
   </si>
 </sst>
 </file>
@@ -319,9 +319,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -359,7 +359,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -465,7 +465,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -607,7 +607,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C3633E-75C5-4B7C-AAEA-01BEFE2CC824}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -635,13 +635,13 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -658,54 +658,54 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E3" s="1"/>
       <c r="G3" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E4" s="1"/>
       <c r="G4" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G5" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G6" s="5" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G7" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G8" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -714,37 +714,37 @@
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
       <c r="G9" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G10" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G11" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G12" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G13" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G14" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -752,13 +752,13 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
-        <v>30</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>6</v>
@@ -767,22 +767,22 @@
         <v>5</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G20" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G21" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G22" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -790,29 +790,29 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
         <v>28</v>
       </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>30</v>
-      </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G24" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G25" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -820,34 +820,34 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" t="s">
         <v>28</v>
       </c>
-      <c r="C26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" t="s">
-        <v>30</v>
-      </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G27" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G28" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G29" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
@@ -855,29 +855,29 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
         <v>28</v>
       </c>
-      <c r="C30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" t="s">
-        <v>30</v>
-      </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G31" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G32" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
@@ -885,34 +885,34 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" t="s">
         <v>28</v>
       </c>
-      <c r="C33" t="s">
+      <c r="E33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="D33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G34" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G35" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G36" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -920,34 +920,34 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" t="s">
         <v>28</v>
       </c>
-      <c r="C37" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" t="s">
-        <v>30</v>
-      </c>
       <c r="E37" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G38" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G39" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G40" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/data/workshops.xlsx
+++ b/data/workshops.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00315273\GitHub\jy_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8965C7D3-744D-43A1-B50F-FB0EDDDE4BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A322E9-097C-4A6E-B4EF-ADD9B9B1A151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C57B6A98-42AC-4710-B062-4A6EBC213B03}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{C57B6A98-42AC-4710-B062-4A6EBC213B03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
   <si>
     <t>with</t>
   </si>
@@ -117,9 +117,6 @@
     <t>set</t>
   </si>
   <si>
-    <t>Extensions to Regressio</t>
-  </si>
-  <si>
     <t>Seven 1-hour sessions</t>
   </si>
   <si>
@@ -214,6 +211,27 @@
   </si>
   <si>
     <t>Quantitative Methods: Stand-along Sessions</t>
+  </si>
+  <si>
+    <t>Intro to Using R for Research</t>
+  </si>
+  <si>
+    <t>Fall 2024</t>
+  </si>
+  <si>
+    <t>Quickly creating descriptive tables</t>
+  </si>
+  <si>
+    <t>Managing and reshaping data</t>
+  </si>
+  <si>
+    <t>Exploratory and advanced plotting</t>
+  </si>
+  <si>
+    <t>Transparent quantitative modeling</t>
+  </si>
+  <si>
+    <t>Creating supplemental materials</t>
   </si>
 </sst>
 </file>
@@ -615,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C3633E-75C5-4B7C-AAEA-01BEFE2CC824}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -661,7 +679,7 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -695,7 +713,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G6" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -755,10 +773,10 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
         <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>28</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>6</v>
@@ -767,17 +785,17 @@
         <v>5</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G20" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G21" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
@@ -793,26 +811,26 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="D23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G24" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G25" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -823,26 +841,26 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G28" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
@@ -858,26 +876,26 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G31" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G32" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
@@ -888,31 +906,31 @@
         <v>26</v>
       </c>
       <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" t="s">
         <v>45</v>
       </c>
-      <c r="D33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="G33" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G34" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G35" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G36" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -923,31 +941,71 @@
         <v>26</v>
       </c>
       <c r="C37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" t="s">
+        <v>51</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="D37" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" t="s">
-        <v>52</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G38" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G39" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G40" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" t="s">
+        <v>60</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G42" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G43" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G44" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G45" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
